--- a/algorithm/二级得分.xlsx
+++ b/algorithm/二级得分.xlsx
@@ -532,58 +532,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.401730627960432e-05</v>
+        <v>5.115885861100296e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01703411514725311</v>
+        <v>0.03135150278948322</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01808729851470411</v>
+        <v>0.01234464787239291</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01449224445027744</v>
+        <v>0.02667315785886383</v>
       </c>
       <c r="F2" t="n">
-        <v>3.920176304513164e-05</v>
+        <v>7.215133705728743e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01606490156511735</v>
+        <v>0.04727338159508253</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009050110451097458</v>
+        <v>0.01665684190813209</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04018082185081201</v>
+        <v>0.03909728927793907</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000175196028492794</v>
+        <v>0.01370117217221195</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001082544205814629</v>
+        <v>0.03181772164885323</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000175196028492794</v>
+        <v>0.03835982878749668</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02648517648084651</v>
+        <v>0.06725421552884968</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01999771372670429</v>
+        <v>0.03384787426905686</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001522967755970798</v>
+        <v>0.007680624423041477</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01617486354113308</v>
+        <v>0.02977003942063402</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01313262798714589</v>
+        <v>0.02417076668867323</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01144060993692409</v>
+        <v>0.01461862966287327</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01671151619874872</v>
+        <v>0.03075775537457563</v>
       </c>
     </row>
     <row r="3">
@@ -593,58 +593,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02433209322028269</v>
+        <v>0.03659320072361312</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01264430355758636</v>
+        <v>0.02327199944522313</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01808729851470411</v>
+        <v>0.04103406855856501</v>
       </c>
       <c r="E3" t="n">
-        <v>3.30495882560489e-05</v>
+        <v>6.082818211827556e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008439579558430483</v>
+        <v>0.01553315213504745</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0182044636034895</v>
+        <v>0.05739110612852388</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01807877781720042</v>
+        <v>0.03327421754911683</v>
       </c>
       <c r="I3" t="n">
-        <v>4.014068116964238e-05</v>
+        <v>0.02979771045725047</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000175196028492794</v>
+        <v>0.03186345508483755</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001082544205814629</v>
+        <v>0.009828971373211738</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000175196028492794</v>
+        <v>0.02160044784176726</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03970793059010588</v>
+        <v>0.03366070127867502</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01999771372670429</v>
+        <v>0.01453382333093597</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001522967755970798</v>
+        <v>0.02665449898589098</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01755890776883985</v>
+        <v>0.03231739019821252</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.994898058642163e-05</v>
+        <v>5.512147477462538e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01144060993692409</v>
+        <v>4.735663733300586e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01064232564173084</v>
+        <v>0.01958733395653472</v>
       </c>
     </row>
     <row r="4">
@@ -654,58 +654,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03405132358588392</v>
+        <v>0.05121001746961396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02361883253175323</v>
+        <v>0.04347075780587334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01808729851470411</v>
+        <v>0.04923104589747132</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02895143931229883</v>
+        <v>0.05328548753560939</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03924096480817677</v>
+        <v>0.07222348839434471</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01606490156511735</v>
+        <v>0.006802483461317068</v>
       </c>
       <c r="H4" t="n">
-        <v>2.144308499449454e-05</v>
+        <v>3.946626714733877e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04018082185081201</v>
+        <v>0.02049813163656185</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000175196028492794</v>
+        <v>0.05910687945377596</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1083626750020444</v>
+        <v>0.056249666399566</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1753712245212868</v>
+        <v>0.02878303967565131</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00334535678964262</v>
+        <v>0.008465565591044017</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01999771372670429</v>
+        <v>0.04833341247264752</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1524490723726769</v>
+        <v>0.09116567249957927</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02770856543868947</v>
+        <v>0.05099796256712147</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02997892956700805</v>
+        <v>0.0551765962494</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02285838432507189</v>
+        <v>0.04740399397033886</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01215962328098532</v>
+        <v>0.02237993931104495</v>
       </c>
     </row>
     <row r="5">
@@ -715,58 +715,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01947247803748207</v>
+        <v>0.02928479235061269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01868029449337814</v>
+        <v>0.03438131654358074</v>
       </c>
       <c r="D5" t="n">
-        <v>1.80692292854187e-05</v>
+        <v>0.03283709121965869</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004164248120262161</v>
+        <v>0.007664350946902721</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01683995735381583</v>
+        <v>0.03099415293303762</v>
       </c>
       <c r="G5" t="n">
-        <v>1.818627732616334e-05</v>
+        <v>5.733377235616772e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02146452807948903</v>
+        <v>0.03950573341448611</v>
       </c>
       <c r="I5" t="n">
-        <v>4.014068116964238e-05</v>
+        <v>0.03258758410345705</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1753712245212868</v>
+        <v>0.009160601444055547</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1083626750020444</v>
+        <v>0.04403369402420962</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000175196028492794</v>
+        <v>0.01202365872992189</v>
       </c>
       <c r="M5" t="n">
-        <v>3.966826232777811e-05</v>
+        <v>6.718702850034934e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01143582687354133</v>
+        <v>0.0193623360654662</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001522967755970798</v>
+        <v>0.04183359863617057</v>
       </c>
       <c r="P5" t="n">
-        <v>2.768088455413533e-05</v>
+        <v>5.09470155515699e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02061987313375129</v>
+        <v>0.03795113538232957</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01144060993692409</v>
+        <v>0.0219042661756434</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02126340911651213</v>
+        <v>0.03913557143810631</v>
       </c>
     </row>
     <row r="6">
@@ -776,58 +776,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007323440080480529</v>
+        <v>0.01101377141811164</v>
       </c>
       <c r="C6" t="n">
-        <v>2.359523729445878e-05</v>
+        <v>4.342733047539795e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01808729851470411</v>
+        <v>4.918186403343789e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02275464151428967</v>
+        <v>0.04188020338843272</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03084058701279142</v>
+        <v>0.05676248759635456</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01606490156511735</v>
+        <v>0.05064595643956298</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01695019439643755</v>
+        <v>0.03119704559399374</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04018082185081201</v>
+        <v>0.02049813163656185</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000175196028492794</v>
+        <v>7.945998774273703e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001082544205814629</v>
+        <v>0.02448813822363942</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000175196028492794</v>
+        <v>5.267234011514961e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009956733844272305</v>
+        <v>0.02526232271613135</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01714375144231664</v>
+        <v>0.02901936153452664</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01053616783903434</v>
+        <v>0.01337278679189633</v>
       </c>
       <c r="P6" t="n">
-        <v>0.005563857795381201</v>
+        <v>0.01024035012586555</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01500443927379724</v>
+        <v>0.02761585886208731</v>
       </c>
       <c r="R6" t="n">
-        <v>2.28355487762956e-05</v>
+        <v>0.02554708443202847</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01291827210061255</v>
+        <v>0.02377624198830006</v>
       </c>
     </row>
     <row r="7">
@@ -837,58 +837,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007323440080480529</v>
+        <v>0.02563058816411248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008254491967919613</v>
+        <v>0.01519249610096305</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01808729851470411</v>
+        <v>0.02464011388075238</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03308263784430494</v>
+        <v>0.06088901030039383</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005639453626635366</v>
+        <v>0.01037948520238406</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01606490156511735</v>
+        <v>0.03884194448388139</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01582161097567468</v>
+        <v>0.02911987363887064</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04018082185081201</v>
+        <v>3.905823104689219e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000175196028492794</v>
+        <v>0.07953944773047976</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001082544205814629</v>
+        <v>5.619347292663937e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000175196028492794</v>
+        <v>0.05272501245526474</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02648517648084651</v>
+        <v>0.06725421552884968</v>
       </c>
       <c r="N7" t="n">
-        <v>1.997773599071358e-05</v>
+        <v>4.828512734530223e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001522967755970798</v>
+        <v>9.107459790167761e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02171104045196014</v>
+        <v>0.03995944253094799</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005645382840540478</v>
+        <v>0.01039039799501688</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01144060993692409</v>
+        <v>0.03647553920118367</v>
       </c>
       <c r="S7" t="n">
-        <v>2.124216694956257e-05</v>
+        <v>3.909647496314317e-05</v>
       </c>
     </row>
   </sheetData>
